--- a/outputs/c/_garlic_both.xlsx
+++ b/outputs/c/_garlic_both.xlsx
@@ -48,15 +48,9 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>reg</t>
   </si>
   <si>
@@ -597,13 +591,19 @@
     <t>granules</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>mince</t>
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:Z87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,19 +1450,19 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="N1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -1485,19 +1485,19 @@
         <v>410</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1524,13 +1524,13 @@
         <v>240</v>
       </c>
       <c r="X2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>57</v>
@@ -1553,19 +1553,19 @@
         <v>512</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="S3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -1592,13 +1592,13 @@
         <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1621,22 +1621,22 @@
         <v>1308</v>
       </c>
       <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
       <c r="M4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="S4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>56</v>
@@ -1692,19 +1692,19 @@
         <v>490</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>10</v>
       </c>
       <c r="S5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>644</v>
       </c>
       <c r="X5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Z5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1748,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>169</v>
@@ -1760,22 +1760,22 @@
         <v>1304</v>
       </c>
       <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>12</v>
       </c>
       <c r="S6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>1856</v>
       </c>
       <c r="X6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>170</v>
@@ -1831,19 +1831,19 @@
         <v>2112</v>
       </c>
       <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>17</v>
       </c>
       <c r="S7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1870,13 +1870,13 @@
         <v>3612</v>
       </c>
       <c r="X7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>167</v>
@@ -1899,19 +1899,19 @@
         <v>1126</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="S8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>318</v>
       </c>
       <c r="X8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1955,7 +1955,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>396</v>
@@ -1967,19 +1967,19 @@
         <v>3612</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>20</v>
       </c>
       <c r="S9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>300</v>
       </c>
       <c r="X9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>58</v>
@@ -2035,22 +2035,22 @@
         <v>318</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2077,13 +2077,13 @@
         <v>510</v>
       </c>
       <c r="X10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Y10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2094,7 +2094,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>48</v>
@@ -2106,25 +2106,25 @@
         <v>300</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" t="s">
         <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>4</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2151,13 +2151,13 @@
         <v>1734</v>
       </c>
       <c r="X11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>73</v>
@@ -2180,19 +2180,19 @@
         <v>830</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
         <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>1546</v>
       </c>
       <c r="X12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Z12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>164</v>
@@ -2248,19 +2248,19 @@
         <v>1734</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>866</v>
       </c>
       <c r="X13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Y13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2304,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>45</v>
@@ -2316,19 +2316,19 @@
         <v>1602</v>
       </c>
       <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
         <v>67</v>
       </c>
-      <c r="H14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="s">
         <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" t="s">
-        <v>17</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>9</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2355,13 +2355,13 @@
         <v>1252</v>
       </c>
       <c r="X14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Z14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>40</v>
@@ -2384,19 +2384,19 @@
         <v>866</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>10</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2423,13 +2423,13 @@
         <v>86</v>
       </c>
       <c r="X15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>218</v>
@@ -2452,19 +2452,19 @@
         <v>1298</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>148</v>
       </c>
       <c r="X16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2508,7 +2508,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>162</v>
@@ -2520,19 +2520,19 @@
         <v>1730</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
         <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
-        <v>17</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>13</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -2559,13 +2559,13 @@
         <v>510</v>
       </c>
       <c r="X17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>11</v>
@@ -2588,19 +2588,19 @@
         <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
         <v>15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" t="s">
-        <v>17</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -2627,13 +2627,13 @@
         <v>286</v>
       </c>
       <c r="X18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>86</v>
@@ -2656,19 +2656,19 @@
         <v>510</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>15</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -2695,13 +2695,13 @@
         <v>726</v>
       </c>
       <c r="X19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>89</v>
@@ -2724,19 +2724,19 @@
         <v>608</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2748,7 +2748,7 @@
         <v>16</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>1842</v>
       </c>
       <c r="X20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Z20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>115</v>
@@ -2792,19 +2792,19 @@
         <v>760</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>17</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2831,13 +2831,13 @@
         <v>2724</v>
       </c>
       <c r="X21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Z21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>69</v>
@@ -2860,19 +2860,19 @@
         <v>2200</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>18</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2899,13 +2899,13 @@
         <v>138</v>
       </c>
       <c r="X22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>195</v>
@@ -2928,19 +2928,19 @@
         <v>2724</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" t="s">
         <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" t="s">
-        <v>17</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>69</v>
@@ -2966,22 +2966,22 @@
         <v>448</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
         <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" t="s">
-        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2995,7 +2995,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>493</v>
@@ -3007,22 +3007,22 @@
         <v>2428</v>
       </c>
       <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
         <v>101</v>
       </c>
-      <c r="H25" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" t="s">
         <v>15</v>
-      </c>
-      <c r="J25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" t="s">
-        <v>54</v>
-      </c>
-      <c r="M25" t="s">
-        <v>17</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -3033,25 +3033,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -3062,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>21</v>
@@ -3074,10 +3074,10 @@
         <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -3088,7 +3088,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>35</v>
@@ -3100,10 +3100,10 @@
         <v>528</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>57</v>
@@ -3126,10 +3126,10 @@
         <v>1014</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>11</v>
@@ -3152,10 +3152,10 @@
         <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3166,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>107</v>
@@ -3178,10 +3178,10 @@
         <v>1092</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3192,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -3204,10 +3204,10 @@
         <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>25</v>
@@ -3230,10 +3230,10 @@
         <v>246</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>98</v>
@@ -3256,10 +3256,10 @@
         <v>684</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3270,7 +3270,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>152</v>
@@ -3282,10 +3282,10 @@
         <v>1112</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3296,7 +3296,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>68</v>
@@ -3308,10 +3308,10 @@
         <v>644</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>164</v>
@@ -3334,10 +3334,10 @@
         <v>1856</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3348,7 +3348,7 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>184</v>
@@ -3360,10 +3360,10 @@
         <v>2176</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>55</v>
@@ -3386,10 +3386,10 @@
         <v>344</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>59</v>
@@ -3412,10 +3412,10 @@
         <v>354</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>74</v>
@@ -3438,10 +3438,10 @@
         <v>502</v>
       </c>
       <c r="G41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>89</v>
@@ -3464,10 +3464,10 @@
         <v>552</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>109</v>
@@ -3490,10 +3490,10 @@
         <v>792</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3504,7 +3504,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44">
         <v>48</v>
@@ -3516,10 +3516,10 @@
         <v>510</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3530,7 +3530,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45">
         <v>68</v>
@@ -3542,10 +3542,10 @@
         <v>782</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <v>84</v>
@@ -3568,10 +3568,10 @@
         <v>1000</v>
       </c>
       <c r="G46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H46" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3582,7 +3582,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>173</v>
@@ -3594,10 +3594,10 @@
         <v>2438</v>
       </c>
       <c r="G47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3608,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48">
         <v>178</v>
@@ -3620,10 +3620,10 @@
         <v>1840</v>
       </c>
       <c r="G48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49">
         <v>40</v>
@@ -3646,10 +3646,10 @@
         <v>1546</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50">
         <v>194</v>
@@ -3672,10 +3672,10 @@
         <v>1252</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3686,7 +3686,7 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51">
         <v>275</v>
@@ -3698,10 +3698,10 @@
         <v>1596</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D52">
         <v>497</v>
@@ -3724,10 +3724,10 @@
         <v>4034</v>
       </c>
       <c r="G52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3738,7 +3738,7 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <v>11</v>
@@ -3750,10 +3750,10 @@
         <v>86</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3764,7 +3764,7 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54">
         <v>28</v>
@@ -3776,10 +3776,10 @@
         <v>222</v>
       </c>
       <c r="G54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3790,7 +3790,7 @@
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <v>152</v>
@@ -3802,10 +3802,10 @@
         <v>1678</v>
       </c>
       <c r="G55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56">
         <v>446</v>
@@ -3828,10 +3828,10 @@
         <v>4146</v>
       </c>
       <c r="G56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -3854,10 +3854,10 @@
         <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3868,7 +3868,7 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -3880,10 +3880,10 @@
         <v>166</v>
       </c>
       <c r="G58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D59">
         <v>15</v>
@@ -3906,10 +3906,10 @@
         <v>232</v>
       </c>
       <c r="G59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D60">
         <v>19</v>
@@ -3932,10 +3932,10 @@
         <v>254</v>
       </c>
       <c r="G60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3946,7 +3946,7 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D61">
         <v>24</v>
@@ -3958,10 +3958,10 @@
         <v>284</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D62">
         <v>30</v>
@@ -3984,10 +3984,10 @@
         <v>440</v>
       </c>
       <c r="G62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3998,7 +3998,7 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D63">
         <v>37</v>
@@ -4010,10 +4010,10 @@
         <v>462</v>
       </c>
       <c r="G63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4024,7 +4024,7 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D64">
         <v>41</v>
@@ -4036,10 +4036,10 @@
         <v>644</v>
       </c>
       <c r="G64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4050,7 +4050,7 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D65">
         <v>293</v>
@@ -4062,10 +4062,10 @@
         <v>1140</v>
       </c>
       <c r="G65" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4076,7 +4076,7 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D66">
         <v>27</v>
@@ -4088,10 +4088,10 @@
         <v>286</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4102,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D67">
         <v>43</v>
@@ -4114,10 +4114,10 @@
         <v>310</v>
       </c>
       <c r="G67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4128,7 +4128,7 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D68">
         <v>106</v>
@@ -4140,10 +4140,10 @@
         <v>726</v>
       </c>
       <c r="G68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4154,7 +4154,7 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <v>109</v>
@@ -4166,10 +4166,10 @@
         <v>730</v>
       </c>
       <c r="G69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H69" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D70">
         <v>216</v>
@@ -4192,10 +4192,10 @@
         <v>1302</v>
       </c>
       <c r="G70" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4206,7 +4206,7 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D71">
         <v>37</v>
@@ -4218,10 +4218,10 @@
         <v>1842</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4232,7 +4232,7 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D72">
         <v>60</v>
@@ -4244,10 +4244,10 @@
         <v>2028</v>
       </c>
       <c r="G72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4258,7 +4258,7 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D73">
         <v>62</v>
@@ -4270,10 +4270,10 @@
         <v>2032</v>
       </c>
       <c r="G73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D74">
         <v>66</v>
@@ -4296,10 +4296,10 @@
         <v>2046</v>
       </c>
       <c r="G74" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4310,7 +4310,7 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D75">
         <v>78</v>
@@ -4322,10 +4322,10 @@
         <v>2240</v>
       </c>
       <c r="G75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H75" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -4336,7 +4336,7 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D76">
         <v>135</v>
@@ -4348,10 +4348,10 @@
         <v>2532</v>
       </c>
       <c r="G76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4362,7 +4362,7 @@
         <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D77">
         <v>204</v>
@@ -4374,10 +4374,10 @@
         <v>2882</v>
       </c>
       <c r="G77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4388,7 +4388,7 @@
         <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D78">
         <v>464</v>
@@ -4400,10 +4400,10 @@
         <v>4920</v>
       </c>
       <c r="G78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4414,7 +4414,7 @@
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D79">
         <v>13</v>
@@ -4426,10 +4426,10 @@
         <v>138</v>
       </c>
       <c r="G79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4440,7 +4440,7 @@
         <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D80">
         <v>93</v>
@@ -4452,10 +4452,10 @@
         <v>694</v>
       </c>
       <c r="G80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4466,7 +4466,7 @@
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D81">
         <v>105</v>
@@ -4478,10 +4478,10 @@
         <v>758</v>
       </c>
       <c r="G81" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4492,7 +4492,7 @@
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D82">
         <v>113</v>
@@ -4504,10 +4504,10 @@
         <v>966</v>
       </c>
       <c r="G82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4518,7 +4518,7 @@
         <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D83">
         <v>123</v>
@@ -4530,10 +4530,10 @@
         <v>802</v>
       </c>
       <c r="G83" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H83" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4544,7 +4544,7 @@
         <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D84">
         <v>136</v>
@@ -4556,10 +4556,10 @@
         <v>846</v>
       </c>
       <c r="G84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4570,7 +4570,7 @@
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D85">
         <v>323</v>
@@ -4582,10 +4582,10 @@
         <v>1778</v>
       </c>
       <c r="G85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4596,7 +4596,7 @@
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D86">
         <v>343</v>
@@ -4608,10 +4608,10 @@
         <v>1828</v>
       </c>
       <c r="G86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4622,7 +4622,7 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D87">
         <v>432</v>
@@ -4634,10 +4634,10 @@
         <v>2202</v>
       </c>
       <c r="G87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H87" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
